--- a/Data Analyst/Evaluasi Plan/Analisa Evaluasi Plan MPE Period Juli 2024.xlsx
+++ b/Data Analyst/Evaluasi Plan/Analisa Evaluasi Plan MPE Period Juli 2024.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dickyaryanto/Documents/PT Sentosa Abadi Mining/Data Analyst/Evaluasi Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F23654-49C0-E246-9211-F2ED7166028F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A939F607-95D1-A445-98A4-221F20904375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{C7AEABED-83FC-3140-A008-D14A7D5EBEFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" activeTab="1" xr2:uid="{C7AEABED-83FC-3140-A008-D14A7D5EBEFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Materi</t>
   </si>
@@ -907,15 +908,43 @@
       </rPr>
       <t>Ratio AVG (Tyre/HM)</t>
     </r>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>MPE</t>
+  </si>
+  <si>
+    <t>ACTUAL</t>
+  </si>
+  <si>
+    <t>MINING BDM</t>
+  </si>
+  <si>
+    <t>MINING KBM</t>
+  </si>
+  <si>
+    <t>COST / PRODUKSI (RP/TON)</t>
+  </si>
+  <si>
+    <t>COST CONTROL</t>
+  </si>
+  <si>
+    <t>SUMBER DATA COST ACTUAL</t>
+  </si>
+  <si>
+    <t>Persentase Peningkatan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -941,7 +970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,8 +1007,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1122,6 +1175,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thick">
         <color auto="1"/>
@@ -1217,6 +1285,120 @@
       </right>
       <top/>
       <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1227,7 +1409,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1241,6 +1423,12 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1304,22 +1492,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,14 +1516,101 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1655,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE271AC-F86A-0E4C-91A5-7429B12A25F2}">
   <dimension ref="B1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="167" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,7 +1942,8 @@
     <col min="4" max="4" width="25.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="37" style="3" customWidth="1"/>
     <col min="6" max="6" width="39.1640625" style="3" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="4.1640625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="2"/>
     <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="2"/>
@@ -1675,132 +1951,132 @@
   <sheetData>
     <row r="1" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="1" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="35" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B5" s="17"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="30" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <v>36332</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="10">
         <v>78942</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="10">
         <f>ABS(H6-I6)</f>
         <v>42610</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="11">
         <f>ABS(H6-I6)/H6</f>
         <v>1.1727953319387867</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -1812,5 +2088,154 @@
     <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA82373-B53C-0B40-A237-C8D32AC7EB81}">
+  <dimension ref="B1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="245" zoomScaleNormal="188" zoomScaleSheetLayoutView="303" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="39" customWidth="1"/>
+    <col min="3" max="6" width="15.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="8" width="13" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="60"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="43"/>
+    </row>
+    <row r="5" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="48">
+        <v>58761.544793814901</v>
+      </c>
+      <c r="D6" s="49">
+        <v>105859.13099391361</v>
+      </c>
+      <c r="E6" s="50">
+        <v>58145.359336116329</v>
+      </c>
+      <c r="F6" s="51">
+        <v>107310.75019677746</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+    </row>
+    <row r="7" spans="2:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="52">
+        <v>80237.362345742804</v>
+      </c>
+      <c r="D7" s="53">
+        <v>125611.02507603903</v>
+      </c>
+      <c r="E7" s="54">
+        <v>79395.987124485022</v>
+      </c>
+      <c r="F7" s="55">
+        <v>127333.49695333297</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+    </row>
+    <row r="8" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="65"/>
+      <c r="I8" s="64"/>
+    </row>
+    <row r="9" spans="2:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B9" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="66">
+        <f>ABS(C7-C6)/C6</f>
+        <v>0.36547401242229416</v>
+      </c>
+      <c r="D9" s="66">
+        <f t="shared" ref="D9:F9" si="0">ABS(D7-D6)/D6</f>
+        <v>0.18658658820145671</v>
+      </c>
+      <c r="E9" s="66">
+        <f t="shared" si="0"/>
+        <v>0.36547418454371999</v>
+      </c>
+      <c r="F9" s="66">
+        <f t="shared" si="0"/>
+        <v>0.18658658820145677</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>